--- a/eagle/th/BOM.xlsx
+++ b/eagle/th/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve">QFN-44</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
     <t xml:space="preserve">IC2</t>
   </si>
   <si>
@@ -205,18 +202,15 @@
     <t xml:space="preserve">22R</t>
   </si>
   <si>
-    <t xml:space="preserve">R3,6,8,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">R3,8,10,11,12,14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">10K</t>
   </si>
   <si>
-    <t xml:space="preserve">R13 ALR ???</t>
-  </si>
-  <si>
     <t xml:space="preserve">R4</t>
   </si>
   <si>
@@ -229,13 +223,22 @@
     <t xml:space="preserve">100R</t>
   </si>
   <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1M</t>
+  </si>
+  <si>
     <t xml:space="preserve">R15,16</t>
   </si>
   <si>
     <t xml:space="preserve">1K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">??????</t>
   </si>
   <si>
     <t xml:space="preserve">PCB</t>
@@ -390,10 +393,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -418,513 +421,469 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>3</v>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
+      <c r="D29" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>81</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="link"/>
     <hyperlink ref="E14" r:id="rId2" display="link"/>
-    <hyperlink ref="E31" r:id="rId3" display="link"/>
+    <hyperlink ref="E33" r:id="rId3" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/eagle/th/BOM.xlsx
+++ b/eagle/th/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">SW2</t>
   </si>
   <si>
-    <t xml:space="preserve">REED SWITCH &lt;10MM NO </t>
+    <t xml:space="preserve">REED SWITCH &lt;=10MM NO </t>
   </si>
   <si>
     <t xml:space="preserve">DIP</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">0603</t>
   </si>
   <si>
-    <t xml:space="preserve">C2,5,7,11,14,15,18,19,20,21</t>
+    <t xml:space="preserve">C2,5,7,11,14,15,17,18,19,20</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -187,13 +187,10 @@
     <t xml:space="preserve">C8,9</t>
   </si>
   <si>
-    <t xml:space="preserve">C16,17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1F 2.7V FARAD CAPACITOR 8MM</t>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000UF 10MM</t>
   </si>
   <si>
     <t xml:space="preserve">R1,2</t>
@@ -226,6 +223,9 @@
     <t xml:space="preserve">R6</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">NC</t>
   </si>
   <si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t xml:space="preserve">TEMPERATURE &amp; HUMIDITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUMPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54MM</t>
   </si>
 </sst>
 </file>
@@ -393,10 +402,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -713,10 +722,10 @@
         <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>30</v>
@@ -724,13 +733,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>48</v>
@@ -738,13 +747,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>48</v>
@@ -752,13 +761,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>48</v>
@@ -766,13 +775,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>48</v>
@@ -780,10 +789,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>68</v>
@@ -877,6 +886,17 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/eagle/th/BOM.xlsx
+++ b/eagle/th/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -52,24 +52,33 @@
     <t xml:space="preserve">link</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1</t>
+    <t xml:space="preserve">Q1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI2301BDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">SI2301BDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
     <t xml:space="preserve">B5817W (MBR120)</t>
   </si>
   <si>
     <t xml:space="preserve">SOD123</t>
   </si>
   <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZT52C3V9</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED1</t>
   </si>
   <si>
@@ -199,10 +208,10 @@
     <t xml:space="preserve">22R</t>
   </si>
   <si>
-    <t xml:space="preserve">R3,8,10,11,12,14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
+    <t xml:space="preserve">R3,8,10,11,12,14,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">10K</t>
@@ -235,10 +244,16 @@
     <t xml:space="preserve">1M</t>
   </si>
   <si>
-    <t xml:space="preserve">R15,16</t>
+    <t xml:space="preserve">R15,16,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">1K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
   </si>
   <si>
     <t xml:space="preserve">PCB</t>
@@ -402,7 +417,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -481,27 +496,27 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,192 +586,192 @@
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>2</v>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,41 +779,41 @@
         <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>3</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,104 +821,132 @@
         <v>69</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>2</v>
+      <c r="A29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="0"/>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>82</v>
+        <v>14</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>85</v>
+      </c>
+      <c r="D36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="link"/>
-    <hyperlink ref="E14" r:id="rId2" display="link"/>
-    <hyperlink ref="E33" r:id="rId3" display="link"/>
+    <hyperlink ref="E15" r:id="rId2" display="link"/>
+    <hyperlink ref="E35" r:id="rId3" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/eagle/th/BOM.xlsx
+++ b/eagle/th/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">10UF</t>
+    <t xml:space="preserve">10UF X5R/X7R</t>
   </si>
   <si>
     <t xml:space="preserve">0603</t>
@@ -184,18 +184,69 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t xml:space="preserve">100NF</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">100NF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> X5R/X7R</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C3,4</t>
   </si>
   <si>
-    <t xml:space="preserve">22PF</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">22PF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> X5R/X7R</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">C8,9</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10UF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> X5R/X7R</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">C16</t>
   </si>
   <si>
@@ -205,7 +256,7 @@
     <t xml:space="preserve">R1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">22R</t>
+    <t xml:space="preserve">22R %1</t>
   </si>
   <si>
     <t xml:space="preserve">R3,8,10,11,12,14,18</t>
@@ -214,19 +265,67 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">10K</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">R4</t>
   </si>
   <si>
-    <t xml:space="preserve">220R</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">220R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">R5,7,9</t>
   </si>
   <si>
-    <t xml:space="preserve">100R</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">100R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">R6</t>
@@ -241,7 +340,23 @@
     <t xml:space="preserve">R13</t>
   </si>
   <si>
-    <t xml:space="preserve">1M</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">R15,16,17</t>
@@ -250,7 +365,23 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">1K</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> %1</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">R19</t>
@@ -303,7 +434,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -331,6 +462,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,8 +555,8 @@
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -740,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>21</v>
@@ -748,13 +884,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>33</v>
@@ -762,13 +898,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
@@ -776,13 +912,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>51</v>
@@ -790,13 +926,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>51</v>
@@ -804,13 +940,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>51</v>
@@ -818,13 +954,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>51</v>
@@ -832,13 +968,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>51</v>
@@ -846,13 +982,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>51</v>
@@ -860,13 +996,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>51</v>
@@ -874,35 +1010,35 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
@@ -910,36 +1046,36 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
